--- a/weather_data.xlsx
+++ b/weather_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomotommi\Documents\.Tutta la Programmazione dell'Uni\Python x Visu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2C04F3-1A3B-43A5-9E82-7435F9C13232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B9E3BE-C4CF-429E-A768-5FB17FDAB110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,12 +211,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:W432"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F428" sqref="F428"/>
+      <selection activeCell="E60" sqref="E3:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,18 +552,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -3765,36 +3765,36 @@
       <c r="A83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="16">
         <f>AVERAGE(B3:B81)</f>
         <v>35.460759493670885</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C83" s="16">
         <f>AVERAGE(C3:C81)</f>
         <v>28.561333333333334</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="16">
         <f>AVERAGE(D3:D81)</f>
         <v>41.365822784810121</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E83" s="16">
         <f>AVERAGE(E3:E81)</f>
         <v>38.21733333333335</v>
       </c>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19">
+      <c r="F83" s="16"/>
+      <c r="G83" s="16">
         <f>AVERAGE(G3:G81)</f>
         <v>38.653333333333336</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H83" s="16">
         <f>AVERAGE(H3:H81)</f>
         <v>1005.4373333333338</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I83" s="16">
         <f>AVERAGE(I3:I81)</f>
         <v>12.531645569620252</v>
       </c>
-      <c r="J83" s="19">
+      <c r="J83" s="16">
         <f>AVERAGE(J3:J81)</f>
         <v>993.10506329113878</v>
       </c>
@@ -3884,18 +3884,18 @@
       <c r="I87" s="15"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="17"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="18"/>
       <c r="V88" s="7"/>
       <c r="W88" s="8"/>
     </row>
@@ -6585,36 +6585,36 @@
       <c r="A154" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B154" s="19">
+      <c r="B154" s="16">
         <f>AVERAGE(B90:B151)</f>
         <v>32.391935483870967</v>
       </c>
-      <c r="C154" s="19">
+      <c r="C154" s="16">
         <f>AVERAGE(C90:C152)</f>
         <v>27.888888888888893</v>
       </c>
-      <c r="D154" s="19">
+      <c r="D154" s="16">
         <f>AVERAGE(D90:D152)</f>
         <v>38.432258064516148</v>
       </c>
-      <c r="E154" s="19">
+      <c r="E154" s="16">
         <f>AVERAGE(E90:E152)</f>
         <v>35.312698412698396</v>
       </c>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19">
+      <c r="F154" s="16"/>
+      <c r="G154" s="16">
         <f t="shared" ref="G154" si="0">AVERAGE(G90:G152)</f>
         <v>23.06451612903226</v>
       </c>
-      <c r="H154" s="19">
+      <c r="H154" s="16">
         <f t="shared" ref="H154:I154" si="1">AVERAGE(H90:H152)</f>
         <v>994.50322580645138</v>
       </c>
-      <c r="I154" s="19">
+      <c r="I154" s="16">
         <f t="shared" si="1"/>
         <v>41.555555555555557</v>
       </c>
-      <c r="J154" s="19">
+      <c r="J154" s="16">
         <f t="shared" ref="J154" si="2">AVERAGE(J90:J152)</f>
         <v>1002.3841269841282</v>
       </c>
@@ -6698,18 +6698,18 @@
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A158" s="16" t="s">
+      <c r="A158" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="17"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="17"/>
-      <c r="I158" s="18"/>
-      <c r="J158" s="17"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="18"/>
       <c r="V158" s="7"/>
       <c r="W158" s="8"/>
     </row>
@@ -10381,36 +10381,36 @@
       <c r="A255" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B255" s="19">
+      <c r="B255" s="16">
         <f>AVERAGE(B160:B253)</f>
         <v>26.885185185185179</v>
       </c>
-      <c r="C255" s="19">
+      <c r="C255" s="16">
         <f t="shared" ref="C255:J255" si="4">AVERAGE(C160:C253)</f>
         <v>33.197872340425498</v>
       </c>
-      <c r="D255" s="19">
+      <c r="D255" s="16">
         <f t="shared" si="4"/>
         <v>43.228395061728392</v>
       </c>
-      <c r="E255" s="19">
+      <c r="E255" s="16">
         <f t="shared" si="4"/>
         <v>36.644680851063832</v>
       </c>
-      <c r="F255" s="19"/>
-      <c r="G255" s="19">
+      <c r="F255" s="16"/>
+      <c r="G255" s="16">
         <f t="shared" si="4"/>
         <v>47.358024691358025</v>
       </c>
-      <c r="H255" s="19">
+      <c r="H255" s="16">
         <f t="shared" si="4"/>
         <v>1007.6629629629637</v>
       </c>
-      <c r="I255" s="19">
+      <c r="I255" s="16">
         <f t="shared" si="4"/>
         <v>21.648936170212767</v>
       </c>
-      <c r="J255" s="19">
+      <c r="J255" s="16">
         <f t="shared" si="4"/>
         <v>992.59361702127569</v>
       </c>
@@ -10490,18 +10490,18 @@
       </c>
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A259" s="16" t="s">
+      <c r="A259" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B259" s="17"/>
-      <c r="C259" s="17"/>
-      <c r="D259" s="17"/>
-      <c r="E259" s="17"/>
-      <c r="F259" s="17"/>
-      <c r="G259" s="18"/>
-      <c r="H259" s="17"/>
-      <c r="I259" s="18"/>
-      <c r="J259" s="17"/>
+      <c r="B259" s="18"/>
+      <c r="C259" s="18"/>
+      <c r="D259" s="18"/>
+      <c r="E259" s="18"/>
+      <c r="F259" s="18"/>
+      <c r="G259" s="19"/>
+      <c r="H259" s="18"/>
+      <c r="I259" s="19"/>
+      <c r="J259" s="18"/>
       <c r="V259" s="7"/>
       <c r="W259" s="8"/>
     </row>
@@ -17165,36 +17165,36 @@
       <c r="A430" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B430" s="19">
+      <c r="B430" s="16">
         <f>AVERAGE(B261:B428)</f>
         <v>29.960119047619067</v>
       </c>
-      <c r="C430" s="19">
+      <c r="C430" s="16">
         <f t="shared" ref="C430:J430" si="7">AVERAGE(C261:C428)</f>
         <v>28.121290322580645</v>
       </c>
-      <c r="D430" s="19">
+      <c r="D430" s="16">
         <f t="shared" si="7"/>
         <v>40.628571428571433</v>
       </c>
-      <c r="E430" s="19">
+      <c r="E430" s="16">
         <f t="shared" si="7"/>
         <v>46.60193548387096</v>
       </c>
-      <c r="F430" s="19"/>
-      <c r="G430" s="19">
+      <c r="F430" s="16"/>
+      <c r="G430" s="16">
         <f t="shared" si="7"/>
         <v>41.910714285714285</v>
       </c>
-      <c r="H430" s="19">
+      <c r="H430" s="16">
         <f t="shared" si="7"/>
         <v>993.73095238095209</v>
       </c>
-      <c r="I430" s="19">
+      <c r="I430" s="16">
         <f t="shared" si="7"/>
         <v>35.535483870967745</v>
       </c>
-      <c r="J430" s="19">
+      <c r="J430" s="16">
         <f t="shared" si="7"/>
         <v>1006.5090322580648</v>
       </c>
@@ -17281,6 +17281,6 @@
     <mergeCell ref="A259:J259"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>